--- a/nanni_chip_rna_2022/documentation/RNAseq_prep_aln_flag_features.xlsx
+++ b/nanni_chip_rna_2022/documentation/RNAseq_prep_aln_flag_features.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SHARE\McIntyre_Lab\Dros_CHIP_RNA_ms\documentation\github_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E32AE-9BCE-4CBA-8799-6C22CBBD3458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F830A-B674-495A-AC3F-23A284C5C36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="924" windowWidth="15672" windowHeight="9924" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15672" windowHeight="9924" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -206,11 +206,6 @@
 ${FEATURE}=[fragments, fusions, introns, TSS300bpWindow, 5UTR, 3UTR, intergenic]</t>
   </si>
   <si>
-    <t>(1) Normalize APN with UQ
-(2) Count flags and select features all on in one sex and all off in the other (APN&gt;5)
-(3) Average samples across all females and all males APN, get ratio of female/male, and flag sex bias</t>
-  </si>
-  <si>
     <t>** uq_ff from AMM mclab/Dros_PB_ChIP/RNAseq/normalization/uq_ff.tsv
 mel...
 sum(flag_f_bias_RNA_apn_uq_ff) = 1218
@@ -391,6 +386,12 @@
   </si>
   <si>
     <t>!!! Renamed from RNAseq_srna_analysis_08avn.xlsx</t>
+  </si>
+  <si>
+    <t>(1) Normalize APN with UQ
+(2) Count flags and select features all on in one sex and all off in the other (APN&gt;5)
+(3) Average samples across all females and all males APN, get ratio of female/male, and flag sex bias
+!!! UQ values calculated by AMM in sas_programs/RNAseq/normalize_log_uq3_longest_exp_ref_fusion_04amm.sas</t>
   </si>
 </sst>
 </file>
@@ -939,7 +940,7 @@
   <dimension ref="A1:AMK41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1028,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1040,7 +1041,7 @@
     <row r="7" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1118,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1149,13 +1150,13 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
@@ -1175,22 +1176,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -1214,16 +1215,16 @@
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="H16" s="16"/>
     </row>
@@ -1250,10 +1251,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>28</v>
@@ -1280,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>21</v>
@@ -1306,7 +1307,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>34</v>
@@ -1318,7 +1319,7 @@
         <v>36</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,10 +2357,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>34</v>
@@ -2371,10 +2372,10 @@
         <v>37</v>
       </c>
       <c r="H24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1025" s="24" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
@@ -2382,22 +2383,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="23"/>
